--- a/Assets/Resources/Files/ideas.xlsx
+++ b/Assets/Resources/Files/ideas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Theerapon.nanoi.185\GDSG\GDSG\Assets\Resources\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF90072-0C02-4EC2-906D-D48F51652EF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7121E3FE-39DC-4E7F-B50E-707218E2B54B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{33D63F4A-3DF9-44EA-8B80-943A3185D081}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="98">
   <si>
     <t>ideaID</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Cooking</t>
   </si>
   <si>
-    <t>diaIdeaID</t>
-  </si>
-  <si>
     <t>idea001</t>
   </si>
   <si>
@@ -210,183 +207,6 @@
     <t>idea029</t>
   </si>
   <si>
-    <t>diaIdea001</t>
-  </si>
-  <si>
-    <t>diaIdea002</t>
-  </si>
-  <si>
-    <t>diaIdea003</t>
-  </si>
-  <si>
-    <t>diaIdea004</t>
-  </si>
-  <si>
-    <t>diaIdea005</t>
-  </si>
-  <si>
-    <t>diaIdea006</t>
-  </si>
-  <si>
-    <t>diaIdea007</t>
-  </si>
-  <si>
-    <t>diaIdea008</t>
-  </si>
-  <si>
-    <t>diaIdea009</t>
-  </si>
-  <si>
-    <t>diaIdea010</t>
-  </si>
-  <si>
-    <t>diaIdea011</t>
-  </si>
-  <si>
-    <t>diaIdea012</t>
-  </si>
-  <si>
-    <t>diaIdea013</t>
-  </si>
-  <si>
-    <t>diaIdea014</t>
-  </si>
-  <si>
-    <t>diaIdea015</t>
-  </si>
-  <si>
-    <t>diaIdea016</t>
-  </si>
-  <si>
-    <t>diaIdea017</t>
-  </si>
-  <si>
-    <t>diaIdea018</t>
-  </si>
-  <si>
-    <t>diaIdea019</t>
-  </si>
-  <si>
-    <t>diaIdea020</t>
-  </si>
-  <si>
-    <t>diaIdea021</t>
-  </si>
-  <si>
-    <t>diaIdea022</t>
-  </si>
-  <si>
-    <t>diaIdea023</t>
-  </si>
-  <si>
-    <t>diaIdea024</t>
-  </si>
-  <si>
-    <t>diaIdea025</t>
-  </si>
-  <si>
-    <t>diaIdea026</t>
-  </si>
-  <si>
-    <t>diaIdea027</t>
-  </si>
-  <si>
-    <t>diaIdea028</t>
-  </si>
-  <si>
-    <t>diaIdea029</t>
-  </si>
-  <si>
-    <t>skillScore001</t>
-  </si>
-  <si>
-    <t>skillScore002</t>
-  </si>
-  <si>
-    <t>skillScore003</t>
-  </si>
-  <si>
-    <t>skillScore004</t>
-  </si>
-  <si>
-    <t>skillScore005</t>
-  </si>
-  <si>
-    <t>skillScore006</t>
-  </si>
-  <si>
-    <t>skillScore007</t>
-  </si>
-  <si>
-    <t>skillScore008</t>
-  </si>
-  <si>
-    <t>skillScore009</t>
-  </si>
-  <si>
-    <t>skillScore010</t>
-  </si>
-  <si>
-    <t>skillScore011</t>
-  </si>
-  <si>
-    <t>skillScore012</t>
-  </si>
-  <si>
-    <t>skillScore013</t>
-  </si>
-  <si>
-    <t>skillScore014</t>
-  </si>
-  <si>
-    <t>skillScore015</t>
-  </si>
-  <si>
-    <t>skillScore016</t>
-  </si>
-  <si>
-    <t>skillScore017</t>
-  </si>
-  <si>
-    <t>skillScore018</t>
-  </si>
-  <si>
-    <t>skillScore019</t>
-  </si>
-  <si>
-    <t>skillScore020</t>
-  </si>
-  <si>
-    <t>skillScore021</t>
-  </si>
-  <si>
-    <t>skillScore022</t>
-  </si>
-  <si>
-    <t>skillScore023</t>
-  </si>
-  <si>
-    <t>skillScore024</t>
-  </si>
-  <si>
-    <t>skillScore025</t>
-  </si>
-  <si>
-    <t>skillScore026</t>
-  </si>
-  <si>
-    <t>skillScore027</t>
-  </si>
-  <si>
-    <t>skillScore028</t>
-  </si>
-  <si>
-    <t>skillScore029</t>
-  </si>
-  <si>
-    <t>skillScoreID</t>
-  </si>
-  <si>
     <t>defaultCollected</t>
   </si>
   <si>
@@ -417,18 +237,6 @@
     <t>null</t>
   </si>
   <si>
-    <t>skillScore030</t>
-  </si>
-  <si>
-    <t>skillScore031</t>
-  </si>
-  <si>
-    <t>diaIdea030</t>
-  </si>
-  <si>
-    <t>diaIdea031</t>
-  </si>
-  <si>
     <t>Multiplayer</t>
   </si>
   <si>
@@ -441,18 +249,6 @@
     <t>รองรับผู้เล่นหลายคน</t>
   </si>
   <si>
-    <t>skillScore032</t>
-  </si>
-  <si>
-    <t>skillScore033</t>
-  </si>
-  <si>
-    <t>diaIdea032</t>
-  </si>
-  <si>
-    <t>diaIdea033</t>
-  </si>
-  <si>
     <t>Goal</t>
   </si>
   <si>
@@ -496,6 +292,42 @@
   </si>
   <si>
     <t>เกมนำเสนอในรูปแบบ</t>
+  </si>
+  <si>
+    <t>Theme1</t>
+  </si>
+  <si>
+    <t>Theme2</t>
+  </si>
+  <si>
+    <t>Theme3</t>
+  </si>
+  <si>
+    <t>Theme4</t>
+  </si>
+  <si>
+    <t>Theme5</t>
+  </si>
+  <si>
+    <t>Theme6</t>
+  </si>
+  <si>
+    <t>Theme7</t>
+  </si>
+  <si>
+    <t>Theme8</t>
+  </si>
+  <si>
+    <t>Theme9</t>
+  </si>
+  <si>
+    <t>Theme10</t>
+  </si>
+  <si>
+    <t>Theme11</t>
+  </si>
+  <si>
+    <t>Theme12</t>
   </si>
 </sst>
 </file>
@@ -853,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91D0C97-0535-428E-8901-9AE1E8FF0655}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -870,24 +702,22 @@
     <col min="7" max="7" width="15.7265625" customWidth="1"/>
     <col min="8" max="8" width="39.90625" customWidth="1"/>
     <col min="9" max="9" width="14.08984375" customWidth="1"/>
-    <col min="10" max="12" width="23.08984375" customWidth="1"/>
-    <col min="13" max="13" width="13.36328125" customWidth="1"/>
-    <col min="14" max="14" width="13.6328125" customWidth="1"/>
-    <col min="15" max="15" width="18.81640625" customWidth="1"/>
+    <col min="10" max="10" width="23.08984375" customWidth="1"/>
+    <col min="11" max="11" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -899,7 +729,7 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="I1" t="s">
         <v>11</v>
@@ -908,36 +738,24 @@
         <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O1" t="s">
-        <v>117</v>
-      </c>
-      <c r="P1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="L1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -949,7 +767,7 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -958,36 +776,24 @@
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>116</v>
-      </c>
-      <c r="L2" t="s">
-        <v>88</v>
-      </c>
-      <c r="M2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -999,7 +805,7 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -1008,36 +814,24 @@
         <v>4</v>
       </c>
       <c r="K3" t="s">
-        <v>116</v>
-      </c>
-      <c r="L3" t="s">
-        <v>89</v>
-      </c>
-      <c r="M3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>117</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -1049,7 +843,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>
@@ -1058,36 +852,24 @@
         <v>6</v>
       </c>
       <c r="K4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L4" t="s">
-        <v>90</v>
-      </c>
-      <c r="M4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" t="s">
-        <v>61</v>
-      </c>
-      <c r="O4" t="s">
-        <v>117</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -1099,7 +881,7 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
@@ -1108,36 +890,24 @@
         <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L5" t="s">
-        <v>91</v>
-      </c>
-      <c r="M5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O5" t="s">
-        <v>117</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
@@ -1149,7 +919,7 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -1158,36 +928,24 @@
         <v>8</v>
       </c>
       <c r="K6" t="s">
-        <v>116</v>
-      </c>
-      <c r="L6" t="s">
-        <v>92</v>
-      </c>
-      <c r="M6" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" t="s">
-        <v>63</v>
-      </c>
-      <c r="O6" t="s">
-        <v>117</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
@@ -1199,7 +957,7 @@
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -1208,36 +966,24 @@
         <v>9</v>
       </c>
       <c r="K7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" t="s">
-        <v>64</v>
-      </c>
-      <c r="O7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
@@ -1249,7 +995,7 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -1258,36 +1004,24 @@
         <v>10</v>
       </c>
       <c r="K8" t="s">
-        <v>116</v>
-      </c>
-      <c r="L8" t="s">
-        <v>94</v>
-      </c>
-      <c r="M8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" t="s">
-        <v>65</v>
-      </c>
-      <c r="O8" t="s">
-        <v>117</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
@@ -1299,7 +1033,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -1308,48 +1042,36 @@
         <v>4</v>
       </c>
       <c r="K9" t="s">
-        <v>116</v>
-      </c>
-      <c r="L9" t="s">
-        <v>95</v>
-      </c>
-      <c r="M9" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" t="s">
-        <v>66</v>
-      </c>
-      <c r="O9" t="s">
-        <v>117</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s">
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
@@ -1358,36 +1080,24 @@
         <v>5</v>
       </c>
       <c r="K10" t="s">
-        <v>116</v>
-      </c>
-      <c r="L10" t="s">
-        <v>96</v>
-      </c>
-      <c r="M10" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" t="s">
-        <v>67</v>
-      </c>
-      <c r="O10" t="s">
-        <v>117</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
@@ -1399,7 +1109,7 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
@@ -1408,36 +1118,24 @@
         <v>4</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
-      </c>
-      <c r="L11" t="s">
-        <v>97</v>
-      </c>
-      <c r="M11" t="s">
-        <v>28</v>
-      </c>
-      <c r="N11" t="s">
-        <v>68</v>
-      </c>
-      <c r="O11" t="s">
-        <v>117</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
@@ -1449,7 +1147,7 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="I12" t="s">
         <v>11</v>
@@ -1458,36 +1156,24 @@
         <v>6</v>
       </c>
       <c r="K12" t="s">
-        <v>116</v>
-      </c>
-      <c r="L12" t="s">
-        <v>98</v>
-      </c>
-      <c r="M12" t="s">
-        <v>28</v>
-      </c>
-      <c r="N12" t="s">
-        <v>69</v>
-      </c>
-      <c r="O12" t="s">
-        <v>117</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>
@@ -1499,7 +1185,7 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="I13" t="s">
         <v>11</v>
@@ -1508,36 +1194,24 @@
         <v>7</v>
       </c>
       <c r="K13" t="s">
-        <v>116</v>
-      </c>
-      <c r="L13" t="s">
-        <v>99</v>
-      </c>
-      <c r="M13" t="s">
-        <v>28</v>
-      </c>
-      <c r="N13" t="s">
-        <v>70</v>
-      </c>
-      <c r="O13" t="s">
-        <v>117</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
         <v>2</v>
@@ -1549,7 +1223,7 @@
         <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="I14" t="s">
         <v>11</v>
@@ -1558,36 +1232,24 @@
         <v>8</v>
       </c>
       <c r="K14" t="s">
-        <v>116</v>
-      </c>
-      <c r="L14" t="s">
-        <v>100</v>
-      </c>
-      <c r="M14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N14" t="s">
-        <v>71</v>
-      </c>
-      <c r="O14" t="s">
-        <v>117</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
         <v>2</v>
@@ -1599,7 +1261,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="I15" t="s">
         <v>11</v>
@@ -1608,36 +1270,24 @@
         <v>9</v>
       </c>
       <c r="K15" t="s">
-        <v>116</v>
-      </c>
-      <c r="L15" t="s">
-        <v>101</v>
-      </c>
-      <c r="M15" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
         <v>72</v>
-      </c>
-      <c r="O15" t="s">
-        <v>117</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>140</v>
       </c>
       <c r="E16" t="s">
         <v>2</v>
@@ -1649,7 +1299,7 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="I16" t="s">
         <v>11</v>
@@ -1658,36 +1308,24 @@
         <v>10</v>
       </c>
       <c r="K16" t="s">
-        <v>116</v>
-      </c>
-      <c r="L16" t="s">
-        <v>102</v>
-      </c>
-      <c r="M16" t="s">
-        <v>28</v>
-      </c>
-      <c r="N16" t="s">
-        <v>73</v>
-      </c>
-      <c r="O16" t="s">
-        <v>117</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
         <v>2</v>
@@ -1699,7 +1337,7 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="I17" t="s">
         <v>11</v>
@@ -1708,45 +1346,36 @@
         <v>4</v>
       </c>
       <c r="K17" t="s">
-        <v>116</v>
-      </c>
-      <c r="L17" t="s">
-        <v>103</v>
-      </c>
-      <c r="M17" t="s">
-        <v>28</v>
-      </c>
-      <c r="N17" t="s">
-        <v>74</v>
-      </c>
-      <c r="O17" t="s">
-        <v>117</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
         <v>2</v>
       </c>
+      <c r="F18" t="s">
+        <v>86</v>
+      </c>
       <c r="G18" t="s">
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="I18" t="s">
         <v>11</v>
@@ -1755,45 +1384,36 @@
         <v>5</v>
       </c>
       <c r="K18" t="s">
-        <v>116</v>
-      </c>
-      <c r="L18" t="s">
-        <v>104</v>
-      </c>
-      <c r="M18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N18" t="s">
-        <v>75</v>
-      </c>
-      <c r="O18" t="s">
-        <v>117</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
       </c>
+      <c r="F19" t="s">
+        <v>87</v>
+      </c>
       <c r="G19" t="s">
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="I19" t="s">
         <v>11</v>
@@ -1802,45 +1422,36 @@
         <v>4</v>
       </c>
       <c r="K19" t="s">
-        <v>116</v>
-      </c>
-      <c r="L19" t="s">
-        <v>105</v>
-      </c>
-      <c r="M19" t="s">
-        <v>28</v>
-      </c>
-      <c r="N19" t="s">
-        <v>76</v>
-      </c>
-      <c r="O19" t="s">
-        <v>117</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
         <v>2</v>
       </c>
+      <c r="F20" t="s">
+        <v>88</v>
+      </c>
       <c r="G20" t="s">
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="I20" t="s">
         <v>11</v>
@@ -1849,45 +1460,36 @@
         <v>6</v>
       </c>
       <c r="K20" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" t="s">
-        <v>106</v>
-      </c>
-      <c r="M20" t="s">
-        <v>28</v>
-      </c>
-      <c r="N20" t="s">
-        <v>77</v>
-      </c>
-      <c r="O20" t="s">
-        <v>117</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
         <v>2</v>
       </c>
+      <c r="F21" t="s">
+        <v>89</v>
+      </c>
       <c r="G21" t="s">
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="I21" t="s">
         <v>11</v>
@@ -1896,45 +1498,36 @@
         <v>7</v>
       </c>
       <c r="K21" t="s">
-        <v>116</v>
-      </c>
-      <c r="L21" t="s">
-        <v>107</v>
-      </c>
-      <c r="M21" t="s">
-        <v>28</v>
-      </c>
-      <c r="N21" t="s">
-        <v>78</v>
-      </c>
-      <c r="O21" t="s">
-        <v>117</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
         <v>2</v>
       </c>
+      <c r="F22" t="s">
+        <v>90</v>
+      </c>
       <c r="G22" t="s">
         <v>3</v>
       </c>
       <c r="H22" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="I22" t="s">
         <v>11</v>
@@ -1943,45 +1536,36 @@
         <v>8</v>
       </c>
       <c r="K22" t="s">
-        <v>116</v>
-      </c>
-      <c r="L22" t="s">
-        <v>108</v>
-      </c>
-      <c r="M22" t="s">
-        <v>28</v>
-      </c>
-      <c r="N22" t="s">
-        <v>79</v>
-      </c>
-      <c r="O22" t="s">
-        <v>117</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
         <v>2</v>
       </c>
+      <c r="F23" t="s">
+        <v>91</v>
+      </c>
       <c r="G23" t="s">
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="I23" t="s">
         <v>11</v>
@@ -1990,45 +1574,36 @@
         <v>9</v>
       </c>
       <c r="K23" t="s">
-        <v>116</v>
-      </c>
-      <c r="L23" t="s">
-        <v>109</v>
-      </c>
-      <c r="M23" t="s">
-        <v>28</v>
-      </c>
-      <c r="N23" t="s">
-        <v>80</v>
-      </c>
-      <c r="O23" t="s">
-        <v>117</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
         <v>2</v>
       </c>
+      <c r="F24" t="s">
+        <v>92</v>
+      </c>
       <c r="G24" t="s">
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="I24" t="s">
         <v>11</v>
@@ -2037,45 +1612,36 @@
         <v>10</v>
       </c>
       <c r="K24" t="s">
-        <v>116</v>
-      </c>
-      <c r="L24" t="s">
-        <v>110</v>
-      </c>
-      <c r="M24" t="s">
-        <v>28</v>
-      </c>
-      <c r="N24" t="s">
-        <v>81</v>
-      </c>
-      <c r="O24" t="s">
-        <v>117</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="E25" t="s">
         <v>2</v>
       </c>
+      <c r="F25" t="s">
+        <v>93</v>
+      </c>
       <c r="G25" t="s">
         <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="I25" t="s">
         <v>11</v>
@@ -2084,45 +1650,36 @@
         <v>10</v>
       </c>
       <c r="K25" t="s">
-        <v>116</v>
-      </c>
-      <c r="L25" t="s">
-        <v>111</v>
-      </c>
-      <c r="M25" t="s">
-        <v>28</v>
-      </c>
-      <c r="N25" t="s">
-        <v>82</v>
-      </c>
-      <c r="O25" t="s">
-        <v>117</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="E26" t="s">
         <v>2</v>
       </c>
+      <c r="F26" t="s">
+        <v>94</v>
+      </c>
       <c r="G26" t="s">
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="I26" t="s">
         <v>11</v>
@@ -2131,45 +1688,36 @@
         <v>4</v>
       </c>
       <c r="K26" t="s">
-        <v>116</v>
-      </c>
-      <c r="L26" t="s">
-        <v>112</v>
-      </c>
-      <c r="M26" t="s">
-        <v>28</v>
-      </c>
-      <c r="N26" t="s">
-        <v>83</v>
-      </c>
-      <c r="O26" t="s">
-        <v>117</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
         <v>2</v>
       </c>
+      <c r="F27" t="s">
+        <v>95</v>
+      </c>
       <c r="G27" t="s">
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="I27" t="s">
         <v>11</v>
@@ -2178,45 +1726,36 @@
         <v>5</v>
       </c>
       <c r="K27" t="s">
-        <v>116</v>
-      </c>
-      <c r="L27" t="s">
-        <v>113</v>
-      </c>
-      <c r="M27" t="s">
-        <v>28</v>
-      </c>
-      <c r="N27" t="s">
-        <v>84</v>
-      </c>
-      <c r="O27" t="s">
-        <v>117</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="E28" t="s">
         <v>2</v>
       </c>
+      <c r="F28" t="s">
+        <v>96</v>
+      </c>
       <c r="G28" t="s">
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="I28" t="s">
         <v>11</v>
@@ -2225,45 +1764,36 @@
         <v>4</v>
       </c>
       <c r="K28" t="s">
-        <v>116</v>
-      </c>
-      <c r="L28" t="s">
-        <v>114</v>
-      </c>
-      <c r="M28" t="s">
-        <v>28</v>
-      </c>
-      <c r="N28" t="s">
+        <v>57</v>
+      </c>
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" t="s">
         <v>85</v>
-      </c>
-      <c r="O28" t="s">
-        <v>117</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" t="s">
-        <v>153</v>
       </c>
       <c r="I29" t="s">
         <v>11</v>
@@ -2272,221 +1802,161 @@
         <v>6</v>
       </c>
       <c r="K29" t="s">
-        <v>116</v>
-      </c>
-      <c r="L29" t="s">
-        <v>115</v>
-      </c>
-      <c r="M29" t="s">
-        <v>28</v>
-      </c>
-      <c r="N29" t="s">
-        <v>86</v>
-      </c>
-      <c r="O29" t="s">
-        <v>117</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="E30" t="s">
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="G30" t="s">
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="I30" t="s">
         <v>11</v>
       </c>
       <c r="J30" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="K30" t="s">
-        <v>116</v>
-      </c>
-      <c r="L30" t="s">
-        <v>127</v>
-      </c>
-      <c r="M30" t="s">
-        <v>28</v>
-      </c>
-      <c r="N30" t="s">
-        <v>129</v>
-      </c>
-      <c r="O30" t="s">
-        <v>117</v>
-      </c>
-      <c r="P30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="L30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="E31" t="s">
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="G31" t="s">
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="I31" t="s">
         <v>11</v>
       </c>
       <c r="J31" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="K31" t="s">
-        <v>116</v>
-      </c>
-      <c r="L31" t="s">
-        <v>128</v>
-      </c>
-      <c r="M31" t="s">
-        <v>28</v>
-      </c>
-      <c r="N31" t="s">
-        <v>130</v>
-      </c>
-      <c r="O31" t="s">
-        <v>117</v>
-      </c>
-      <c r="P31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="L31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="E32" t="s">
         <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="G32" t="s">
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="I32" t="s">
         <v>11</v>
       </c>
       <c r="J32" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="K32" t="s">
-        <v>116</v>
-      </c>
-      <c r="L32" t="s">
-        <v>135</v>
-      </c>
-      <c r="M32" t="s">
-        <v>28</v>
-      </c>
-      <c r="N32" t="s">
-        <v>137</v>
-      </c>
-      <c r="O32" t="s">
-        <v>117</v>
-      </c>
-      <c r="P32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="L32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="E33" t="s">
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="G33" t="s">
         <v>3</v>
       </c>
       <c r="H33" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="I33" t="s">
         <v>11</v>
       </c>
       <c r="J33" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="K33" t="s">
-        <v>116</v>
-      </c>
-      <c r="L33" t="s">
-        <v>136</v>
-      </c>
-      <c r="M33" t="s">
-        <v>28</v>
-      </c>
-      <c r="N33" t="s">
-        <v>138</v>
-      </c>
-      <c r="O33" t="s">
-        <v>117</v>
-      </c>
-      <c r="P33" t="b">
+        <v>57</v>
+      </c>
+      <c r="L33" t="b">
         <v>1</v>
       </c>
     </row>
